--- a/biology/Botanique/Milla_(plante)/Milla_(plante).xlsx
+++ b/biology/Botanique/Milla_(plante)/Milla_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Milla est un genre de plantes de la famille des Asparagacées, décrit par Antonio José Cavanilles. Il comprend une dizaine d'espèces que l'on trouve du sud des États-Unis, jusqu'au Mexique et au Honduras.
 </t>
@@ -511,21 +523,23 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
-Milla biflora Cav.[1] : sud-est de l'Arizona, jusqu'au sud-est du Nouveau-Mexique et du Honduras ;
+Milla biflora Cav. : sud-est de l'Arizona, jusqu'au sud-est du Nouveau-Mexique et du Honduras ;
 Milla biflura Cav.
 Autres espèces :
-Milla bryanii I.M.Johnst.[2]: Mexique (Coahuila);
-Milla delicata H.E.Moore[3]: Mexique (Guerrero);
-Milla filifolia T.M.Howard[4]: Mexique (Morelos);
-Milla magnifica H.E.Moore[5]: Mexique (Guerrero, Morelos);
-Milla mexicana T.M.Howard[6]: Mexique (Puebla, Oaxaca);
-Milla mortoniana H.E.Moore[3]: Mexique (Guerrero);
-Milla oaxacana Ravenna[7]: Mexique (Oaxaca);
-Milla potosina T.M.Howard[8]: Mexique (San Luis Potosí);
-Milla rosea H.E.Moore[9]: Mexique (Nuevo León).</t>
+Milla bryanii I.M.Johnst.: Mexique (Coahuila);
+Milla delicata H.E.Moore: Mexique (Guerrero);
+Milla filifolia T.M.Howard: Mexique (Morelos);
+Milla magnifica H.E.Moore: Mexique (Guerrero, Morelos);
+Milla mexicana T.M.Howard: Mexique (Puebla, Oaxaca);
+Milla mortoniana H.E.Moore: Mexique (Guerrero);
+Milla oaxacana Ravenna: Mexique (Oaxaca);
+Milla potosina T.M.Howard: Mexique (San Luis Potosí);
+Milla rosea H.E.Moore: Mexique (Nuevo León).</t>
         </is>
       </c>
     </row>
